--- a/OVP/metadata/plate_layout_1.2.xlsx
+++ b/OVP/metadata/plate_layout_1.2.xlsx
@@ -73,33 +73,43 @@
   </si>
   <si>
     <t>patient_1
+Alpelisib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Trastuzumab Deruxtecan
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Trastuzumab Deruxtecan
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Alpelisib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
 Everolimus
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Methotrexate
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Cobimetinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Staurosporine
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Etoposide
- 3</t>
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Paclitaxel
+ 2</t>
   </si>
   <si>
     <t>patient_1
@@ -108,17 +118,7 @@
   </si>
   <si>
     <t>patient_1
-Methotrexate
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Vinblastine
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Trametinib
+Dasatinib
  3</t>
   </si>
   <si>
@@ -128,38 +128,38 @@
   </si>
   <si>
     <t>patient_1
+Trametinib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Paclitaxel
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Cobimetinib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
 Fluorouracil
  1</t>
   </si>
   <si>
     <t>patient_1
-Cobimetinib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin + Paclitaxel
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Erlotinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Abemaciclib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin + Paclitaxel
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Alpelisib
- 1</t>
+Everolimus
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Etoposide
+ 3</t>
   </si>
   <si>
     <t>patient_1
@@ -168,48 +168,48 @@
   </si>
   <si>
     <t>patient_1
-Olaparib
+Trastuzumab Deruxtecan
  3</t>
   </si>
   <si>
     <t>patient_1
 Dasatinib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Ribociclib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Niraparib
  3</t>
   </si>
   <si>
     <t>patient_1
 Carboplatin
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Trastuzumab Deruxtecan
- 3</t>
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Erlotinib
+ 1</t>
   </si>
   <si>
     <t>patient_1
 Vinblastine
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Niraparib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Trastuzumab Deruxtecan
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Methotrexate
  1</t>
   </si>
   <si>
     <t>patient_1
 Erlotinib
- 3</t>
+ 2</t>
   </si>
   <si>
     <t>patient_1
@@ -218,18 +218,18 @@
   </si>
   <si>
     <t>patient_1
-Niraparib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Staurosporine
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Trametinib
- 2</t>
+Dasatinib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Methotrexate
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin + Paclitaxel
+ 3</t>
   </si>
   <si>
     <t>patient_1
@@ -238,52 +238,52 @@
   </si>
   <si>
     <t>patient_1
+Erlotinib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
 Staurosporine
- 3</t>
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Everolimus
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+DMSO
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Staurosporine
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin + Paclitaxel
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Etoposide
+ 2</t>
   </si>
   <si>
     <t>patient_1
 Fluorouracil
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Abemaciclib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Trametinib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-DMSO
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Vinblastine
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Trastuzumab Deruxtecan
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Dasatinib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Dasatinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Paclitaxel
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Niraparib
  2</t>
   </si>
   <si>
@@ -293,32 +293,32 @@
   </si>
   <si>
     <t>patient_1
+Vinblastine
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Trametinib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Cyclophosphamide
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Vinblastine
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Niraparib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
 Abemaciclib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Alpelisib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Ribociclib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Methotrexate
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Paclitaxel
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Ribociclib
  1</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
   </si>
   <si>
     <t>patient_1
-Niraparib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Etoposide
+Cobimetinib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin
  2</t>
   </si>
   <si>
@@ -343,8 +343,8 @@
   </si>
   <si>
     <t>patient_1
-Olaparib
- 2</t>
+Staurosporine
+ 3</t>
   </si>
   <si>
     <t>patient_1
@@ -353,22 +353,22 @@
   </si>
   <si>
     <t>patient_1
-Alpelisib
- 2</t>
+Abemaciclib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Methotrexate
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Paclitaxel
+ 3</t>
   </si>
   <si>
     <t>patient_1
 Cyclophosphamide
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin + Paclitaxel
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Erlotinib
  1</t>
   </si>
   <si>
@@ -378,7 +378,7 @@
   </si>
   <si>
     <t>patient_1
-Everolimus
+Trametinib
  2</t>
   </si>
   <si>
@@ -393,27 +393,27 @@
   </si>
   <si>
     <t>patient_1
-Cyclophosphamide
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Everolimus
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Fluorouracil
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin
+Abemaciclib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Ribociclib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin + Paclitaxel
  2</t>
   </si>
   <si>
     <t>patient_1
 Cobimetinib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Alpelisib
  3</t>
   </si>
   <si>
@@ -423,13 +423,148 @@
   </si>
   <si>
     <t>patient_1
-Paclitaxel
- 3</t>
+Fluorouracil
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Alpelisib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Berzosertib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Trametinib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin + Gemcitabine
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin + Adavosertib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Trametinib + Ribociclib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Trametinib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Berzosertib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin + Adavosertib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Alpelisib
+ 2</t>
   </si>
   <si>
     <t>patient_1
 Bortezomib
- 1</t>
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Everolimus
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin + Trametinib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Everolimus
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Bortezomib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Cediranib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin + Gemcitabine
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Trametinib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Everolimus
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin + Gemcitabine
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Prexasertib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Trametinib + Ribociclib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Prexasertib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Alpelisib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_1
+Trametinib + Ribociclib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Cediranib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Carboplatin + Trametinib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Olaparib + Berzosertib
+ 2</t>
   </si>
   <si>
     <t>patient_1
@@ -438,172 +573,37 @@
   </si>
   <si>
     <t>patient_1
-Carboplatin + Gemcitabine
- 2</t>
+Prexasertib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_1
+Doxorubicin + Cyclophosphamide
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Bortezomib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_1
+Doxorubicin + Cyclophosphamide
+ 3</t>
   </si>
   <si>
     <t>patient_1
 Carboplatin + Trametinib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Everolimus
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Doxorubicin + Cyclophosphamide
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Everolimus
  3</t>
   </si>
   <si>
     <t>patient_1
 Carboplatin + Adavosertib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin + Trametinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Prexasertib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Trametinib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin + Adavosertib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin + Adavosertib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin + Gemcitabine
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Prexasertib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Alpelisib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Berzosertib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Prexasertib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Alpelisib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Bortezomib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin + Gemcitabine
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Doxorubicin + Cyclophosphamide
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Berzosertib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Alpelisib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Trametinib + Ribociclib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Everolimus
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Berzosertib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Trametinib + Ribociclib
- 2</t>
+ 3</t>
   </si>
   <si>
     <t>patient_1
 Olaparib + Cediranib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Trametinib
- 1</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Cediranib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Trametinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_1
-Bortezomib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Trametinib + Ribociclib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Olaparib + Cediranib
- 3</t>
-  </si>
-  <si>
-    <t>patient_1
-Carboplatin + Trametinib
  3</t>
   </si>
   <si>
@@ -673,52 +673,52 @@
   </si>
   <si>
     <t>patient_2
-Methotrexate
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Staurosporine
+Olaparib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Vinblastine
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Trametinib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Everolimus
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Paclitaxel
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Trastuzumab Deruxtecan
  2</t>
   </si>
   <si>
     <t>patient_2
 Abemaciclib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Ribociclib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Dasatinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Trametinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Cyclophosphamide
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Cobimetinib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Fluorouracil
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Etoposide
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Vinblastine
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Trastuzumab Deruxtecan
  3</t>
   </si>
   <si>
@@ -728,12 +728,12 @@
   </si>
   <si>
     <t>patient_2
-Vinblastine
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin + Paclitaxel
+Staurosporine
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Cyclophosphamide
  1</t>
   </si>
   <si>
@@ -743,22 +743,22 @@
   </si>
   <si>
     <t>patient_2
-Ribociclib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Everolimus
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin + Paclitaxel
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin
+Methotrexate
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Trametinib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Staurosporine
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Cyclophosphamide
  2</t>
   </si>
   <si>
@@ -768,48 +768,48 @@
   </si>
   <si>
     <t>patient_2
-Everolimus
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Cyclophosphamide
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Etoposide
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Alpelisib
- 3</t>
+Cobimetinib
+ 2</t>
   </si>
   <si>
     <t>patient_2
 Staurosporine
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Alpelisib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Cobimetinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Erlotinib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin
- 1</t>
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Methotrexate
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Trametinib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Abemaciclib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin + Paclitaxel
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Niraparib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Dasatinib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Vinblastine
+ 2</t>
   </si>
   <si>
     <t>patient_2
@@ -818,17 +818,17 @@
   </si>
   <si>
     <t>patient_2
-Etoposide
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Vinblastine
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Abemaciclib
+Fluorouracil
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Alpelisib
  3</t>
   </si>
   <si>
@@ -838,53 +838,53 @@
   </si>
   <si>
     <t>patient_2
+Fluorouracil
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Cyclophosphamide
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Niraparib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Erlotinib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+DMSO
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Alpelisib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin + Paclitaxel
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Everolimus
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
 Ribociclib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Cyclophosphamide
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-DMSO
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Methotrexate
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Fluorouracil
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Trastuzumab Deruxtecan
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Abemaciclib
- 2</t>
+ 1</t>
   </si>
   <si>
     <t>patient_2
@@ -893,33 +893,33 @@
   </si>
   <si>
     <t>patient_2
-Niraparib
+Ribociclib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Paclitaxel
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Cobimetinib
  3</t>
   </si>
   <si>
     <t>patient_2
 Everolimus
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Erlotinib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Trastuzumab Deruxtecan
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Cobimetinib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Dasatinib
- 1</t>
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Abemaciclib
+ 2</t>
   </si>
   <si>
     <t>patient_2
@@ -928,13 +928,13 @@
   </si>
   <si>
     <t>patient_2
-Niraparib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Trametinib
- 1</t>
+Cobimetinib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Erlotinib
+ 2</t>
   </si>
   <si>
     <t>patient_2
@@ -943,7 +943,7 @@
   </si>
   <si>
     <t>patient_2
-Methotrexate
+Erlotinib
  3</t>
   </si>
   <si>
@@ -953,37 +953,37 @@
   </si>
   <si>
     <t>patient_2
-Alpelisib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Vinblastine
+Carboplatin + Paclitaxel
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Ribociclib
  3</t>
   </si>
   <si>
     <t>patient_2
 Trastuzumab Deruxtecan
- 3</t>
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+DMSO
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib
+ 2</t>
   </si>
   <si>
     <t>patient_2
 Etoposide
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-DMSO
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Paclitaxel
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Niraparib
  1</t>
   </si>
   <si>
@@ -993,28 +993,28 @@
   </si>
   <si>
     <t>patient_2
+Alpelisib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Niraparib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Dasatinib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
 Paclitaxel
  2</t>
   </si>
   <si>
     <t>patient_2
-Paclitaxel
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Erlotinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Staurosporine
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Trametinib
- 3</t>
+Methotrexate
+ 2</t>
   </si>
   <si>
     <t>patient_2
@@ -1023,12 +1023,72 @@
   </si>
   <si>
     <t>patient_2
-Carboplatin + Paclitaxel
+Etoposide
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Alpelisib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Prexasertib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Trametinib + Ribociclib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Trametinib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Prexasertib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin + Trametinib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Bortezomib
  3</t>
   </si>
   <si>
     <t>patient_2
 Olaparib + Cediranib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Trametinib + Ribociclib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Berzosertib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin + Gemcitabine
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Everolimus
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Berzosertib
  1</t>
   </si>
   <si>
@@ -1038,172 +1098,112 @@
   </si>
   <si>
     <t>patient_2
+Olaparib + Berzosertib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Bortezomib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
 Olaparib + Everolimus
  1</t>
   </si>
   <si>
     <t>patient_2
-Olaparib + Berzosertib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
 Doxorubicin + Cyclophosphamide
  2</t>
   </si>
   <si>
     <t>patient_2
+Olaparib + Alpelisib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin + Adavosertib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Cediranib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
 Carboplatin + Gemcitabine
  2</t>
   </si>
   <si>
     <t>patient_2
+Carboplatin + Trametinib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Trametinib + Ribociclib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Trametinib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Cediranib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin + Adavosertib
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Doxorubicin + Cyclophosphamide
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Trametinib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Bortezomib
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Everolimus
+ 2</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin + Gemcitabine
+ 1</t>
+  </si>
+  <si>
+    <t>patient_2
+Carboplatin + Adavosertib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Doxorubicin + Cyclophosphamide
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
+Olaparib + Alpelisib
+ 3</t>
+  </si>
+  <si>
+    <t>patient_2
 Prexasertib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Everolimus
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Trametinib + Ribociclib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Berzosertib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin + Trametinib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin + Adavosertib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin + Gemcitabine
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Alpelisib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Doxorubicin + Cyclophosphamide
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Alpelisib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin + Trametinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Trametinib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Berzosertib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin + Adavosertib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Trametinib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin + Gemcitabine
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Doxorubicin + Cyclophosphamide
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Bortezomib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Trametinib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Prexasertib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Bortezomib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Cediranib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Cediranib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Bortezomib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Trametinib + Ribociclib
- 1</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Alpelisib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Carboplatin + Adavosertib
- 2</t>
-  </si>
-  <si>
-    <t>patient_2
-Olaparib + Everolimus
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Prexasertib
- 3</t>
-  </si>
-  <si>
-    <t>patient_2
-Trametinib + Ribociclib
  3</t>
   </si>
   <si>
@@ -1219,100 +1219,100 @@
     <t>DMSO</t>
   </si>
   <si>
+    <t>Alpelisib</t>
+  </si>
+  <si>
+    <t>Olaparib</t>
+  </si>
+  <si>
+    <t>Trastuzumab Deruxtecan</t>
+  </si>
+  <si>
     <t>Everolimus</t>
   </si>
   <si>
+    <t>Paclitaxel</t>
+  </si>
+  <si>
+    <t>Cyclophosphamide</t>
+  </si>
+  <si>
+    <t>Dasatinib</t>
+  </si>
+  <si>
+    <t>Trametinib</t>
+  </si>
+  <si>
+    <t>Cobimetinib</t>
+  </si>
+  <si>
+    <t>Fluorouracil</t>
+  </si>
+  <si>
+    <t>Etoposide</t>
+  </si>
+  <si>
+    <t>Ribociclib</t>
+  </si>
+  <si>
+    <t>Niraparib</t>
+  </si>
+  <si>
     <t>Carboplatin</t>
   </si>
   <si>
+    <t>Erlotinib</t>
+  </si>
+  <si>
+    <t>Vinblastine</t>
+  </si>
+  <si>
     <t>Methotrexate</t>
   </si>
   <si>
-    <t>Cobimetinib</t>
+    <t>Carboplatin + Paclitaxel</t>
   </si>
   <si>
     <t>Staurosporine</t>
   </si>
   <si>
-    <t>Etoposide</t>
-  </si>
-  <si>
-    <t>Cyclophosphamide</t>
-  </si>
-  <si>
-    <t>Vinblastine</t>
-  </si>
-  <si>
-    <t>Trametinib</t>
-  </si>
-  <si>
-    <t>Fluorouracil</t>
-  </si>
-  <si>
-    <t>Carboplatin + Paclitaxel</t>
-  </si>
-  <si>
-    <t>Erlotinib</t>
-  </si>
-  <si>
     <t>Abemaciclib</t>
   </si>
   <si>
-    <t>Alpelisib</t>
-  </si>
-  <si>
-    <t>Olaparib</t>
-  </si>
-  <si>
-    <t>Dasatinib</t>
-  </si>
-  <si>
-    <t>Trastuzumab Deruxtecan</t>
-  </si>
-  <si>
-    <t>Niraparib</t>
-  </si>
-  <si>
-    <t>Paclitaxel</t>
-  </si>
-  <si>
-    <t>Ribociclib</t>
+    <t>Olaparib + Alpelisib</t>
+  </si>
+  <si>
+    <t>Olaparib + Berzosertib</t>
+  </si>
+  <si>
+    <t>Olaparib + Trametinib</t>
+  </si>
+  <si>
+    <t>Carboplatin + Gemcitabine</t>
+  </si>
+  <si>
+    <t>Carboplatin + Adavosertib</t>
+  </si>
+  <si>
+    <t>Trametinib + Ribociclib</t>
   </si>
   <si>
     <t>Bortezomib</t>
   </si>
   <si>
+    <t>Olaparib + Everolimus</t>
+  </si>
+  <si>
+    <t>Carboplatin + Trametinib</t>
+  </si>
+  <si>
+    <t>Olaparib + Cediranib</t>
+  </si>
+  <si>
+    <t>Prexasertib</t>
+  </si>
+  <si>
     <t>Doxorubicin + Cyclophosphamide</t>
-  </si>
-  <si>
-    <t>Carboplatin + Gemcitabine</t>
-  </si>
-  <si>
-    <t>Carboplatin + Trametinib</t>
-  </si>
-  <si>
-    <t>Olaparib + Everolimus</t>
-  </si>
-  <si>
-    <t>Carboplatin + Adavosertib</t>
-  </si>
-  <si>
-    <t>Prexasertib</t>
-  </si>
-  <si>
-    <t>Olaparib + Trametinib</t>
-  </si>
-  <si>
-    <t>Olaparib + Alpelisib</t>
-  </si>
-  <si>
-    <t>Olaparib + Berzosertib</t>
-  </si>
-  <si>
-    <t>Trametinib + Ribociclib</t>
-  </si>
-  <si>
-    <t>Olaparib + Cediranib</t>
   </si>
   <si>
     <t>1</t>
@@ -3593,28 +3593,28 @@
         <v>247</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>268</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>247</v>
@@ -3623,28 +3623,28 @@
         <v>247</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="60" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>248</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>247</v>
@@ -3673,40 +3673,40 @@
         <v>269</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="P5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>247</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>276</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="60" customHeight="1">
@@ -3717,10 +3717,10 @@
         <v>249</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>247</v>
@@ -3729,7 +3729,7 @@
         <v>267</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>270</v>
@@ -3738,37 +3738,37 @@
         <v>274</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>247</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>257</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>269</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="60" customHeight="1">
@@ -3779,55 +3779,55 @@
         <v>250</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>264</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>247</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>271</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>247</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>279</v>
@@ -3838,19 +3838,19 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>247</v>
@@ -3859,7 +3859,7 @@
         <v>272</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>279</v>
@@ -3868,31 +3868,31 @@
         <v>247</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>247</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="60" customHeight="1">
@@ -3900,61 +3900,61 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>247</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>247</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="S9" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="60" customHeight="1">
@@ -3962,28 +3962,28 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>247</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>279</v>
@@ -3992,31 +3992,31 @@
         <v>247</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>247</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>274</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="60" customHeight="1">
@@ -4024,61 +4024,61 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>247</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>247</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="T11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="V11" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="60" customHeight="1">
@@ -4086,61 +4086,61 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>247</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>247</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>252</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="60" customHeight="1">
@@ -4148,61 +4148,61 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>247</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>247</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="S13" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="60" customHeight="1">
@@ -4210,49 +4210,49 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>247</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>247</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>247</v>
@@ -4261,10 +4261,10 @@
         <v>271</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="60" customHeight="1">
@@ -4275,55 +4275,55 @@
         <v>247</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>247</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="T15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>278</v>
@@ -4583,13 +4583,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>280</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>282</v>
@@ -4601,19 +4601,19 @@
         <v>281</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>280</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>281</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>280</v>
@@ -4625,16 +4625,16 @@
         <v>282</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>280</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>280</v>
@@ -4645,10 +4645,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>280</v>
@@ -4666,7 +4666,7 @@
         <v>280</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>281</v>
@@ -4684,7 +4684,7 @@
         <v>280</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>288</v>
@@ -4693,13 +4693,13 @@
         <v>280</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="60" customHeight="1">
@@ -4710,13 +4710,13 @@
         <v>281</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>281</v>
@@ -4725,7 +4725,7 @@
         <v>290</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>281</v>
@@ -4740,16 +4740,16 @@
         <v>281</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>290</v>
@@ -4758,7 +4758,7 @@
         <v>281</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>282</v>
@@ -4769,7 +4769,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>281</v>
@@ -4778,13 +4778,13 @@
         <v>285</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>281</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>281</v>
@@ -4799,7 +4799,7 @@
         <v>281</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>281</v>
@@ -4811,7 +4811,7 @@
         <v>281</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>281</v>
@@ -4831,13 +4831,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>281</v>
@@ -4846,7 +4846,7 @@
         <v>289</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>282</v>
@@ -4870,7 +4870,7 @@
         <v>281</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>289</v>
@@ -4879,13 +4879,13 @@
         <v>282</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>281</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="60" customHeight="1">
@@ -4893,7 +4893,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>284</v>
@@ -4905,16 +4905,16 @@
         <v>281</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>281</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>281</v>
@@ -4923,7 +4923,7 @@
         <v>281</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>284</v>
@@ -4932,7 +4932,7 @@
         <v>281</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>282</v>
@@ -4944,10 +4944,10 @@
         <v>281</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="60" customHeight="1">
@@ -4955,13 +4955,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>282</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>287</v>
@@ -4970,13 +4970,13 @@
         <v>281</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>281</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>282</v>
@@ -4985,7 +4985,7 @@
         <v>290</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>281</v>
@@ -5000,7 +5000,7 @@
         <v>282</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>281</v>
@@ -5009,7 +5009,7 @@
         <v>282</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="60" customHeight="1">
@@ -5017,10 +5017,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>286</v>
@@ -5029,13 +5029,13 @@
         <v>282</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>282</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>282</v>
@@ -5056,19 +5056,19 @@
         <v>286</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>282</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>282</v>
